--- a/data/data-verwerking_digitaleMarketing_alex_makdis_afrim.xlsx
+++ b/data/data-verwerking_digitaleMarketing_alex_makdis_afrim.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Alex\Desktop\buscommit-digitale-marketing\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Alex\Desktop\comm and bus leuke word opdrachten juuj\buscommit-digitale-marketing\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B9C739-D561-41DF-B08B-69B828148FD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBCD0EA-F61F-430A-83A2-707248926D56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3E68D57D-FA15-4EEE-8D22-66C4D63CFB17}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Blad2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="94">
   <si>
     <t>Mailing 1 - Feedback vragen aan populatie</t>
   </si>
@@ -304,6 +305,18 @@
   </si>
   <si>
     <t>Antwoorden op het formulier: Grotendeels positieve antwoorden. Veel negatieve antwoorden hebben te maken met kleur of gaan over iets waar er een animatie of bepaalde functie aantoegevoegd wordt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      </t>
+  </si>
+  <si>
+    <t>Mailing 2 - Feedback vragen aan populatie</t>
+  </si>
+  <si>
+    <t>ntb</t>
   </si>
 </sst>
 </file>
@@ -348,16 +361,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri (Hoofdtekst)"/>
+    </font>
+    <font>
+      <b/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color theme="1"/>
-      <name val="Calibri (Hoofdtekst)"/>
     </font>
   </fonts>
   <fills count="3">
@@ -369,7 +384,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,13 +401,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -406,6 +416,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -662,7 +680,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Blad1!$I$12:$I$17</c:f>
+              <c:f>Blad1!$J$12:$J$17</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -688,7 +706,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$J$12:$J$17</c:f>
+              <c:f>Blad1!$K$12:$K$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1074,7 +1092,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Blad1!$I$39:$I$44</c:f>
+              <c:f>Blad1!$J$39:$J$44</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1100,7 +1118,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$L$39:$L$44</c:f>
+              <c:f>Blad1!$M$39:$M$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1516,7 +1534,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Blad1!$I$62:$I$67</c:f>
+              <c:f>Blad1!$J$62:$J$67</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1543,7 +1561,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$J$62:$J$67</c:f>
+              <c:f>Blad1!$K$62:$K$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3617,13 +3635,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>847165</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>147917</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>309282</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
@@ -3653,13 +3671,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>13446</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>125506</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>327211</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>13447</xdr:rowOff>
@@ -3689,13 +3707,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>838201</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>129988</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>300318</xdr:colOff>
       <xdr:row>69</xdr:row>
       <xdr:rowOff>174811</xdr:rowOff>
@@ -4023,674 +4041,686 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFEE9B85-2FD9-435F-9AF3-8CE46D62E99A}">
-  <dimension ref="A1:L89"/>
+  <dimension ref="A1:M89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="14.4"/>
   <cols>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
     <col min="2" max="2" width="21.44140625" customWidth="1"/>
     <col min="3" max="3" width="9.21875" customWidth="1"/>
     <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="55.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.6640625" customWidth="1"/>
+    <col min="10" max="10" width="55.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="25.8">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" ht="25.8">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" ht="17.399999999999999">
-      <c r="A3" s="3" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:11" ht="25.8">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:11" ht="17.399999999999999">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" ht="17.399999999999999">
-      <c r="A4" s="3" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" ht="17.399999999999999">
+      <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" ht="17.399999999999999">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="7" spans="1:10" ht="21">
-      <c r="A7" s="5" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:11" ht="17.399999999999999">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="7" spans="1:11" ht="21">
+      <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="17.399999999999999">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:11" ht="17.399999999999999">
+      <c r="A8" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
+    <row r="9" spans="1:11">
+      <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="J9" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="6">
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
         <v>21</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="1">
         <v>36</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="2">
         <f>A11/B11*100</f>
         <v>58.333333333333336</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>5</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="D12" s="7"/>
-      <c r="I12" t="s">
+    <row r="12" spans="1:11">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="D12" s="2"/>
+      <c r="J12" t="s">
         <v>34</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:11">
+      <c r="A13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="D13" s="7"/>
-      <c r="I13" t="s">
+      <c r="B13" s="1"/>
+      <c r="D13" s="2"/>
+      <c r="J13" t="s">
         <v>35</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>36</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="6">
+    <row r="15" spans="1:11">
+      <c r="A15" s="1">
         <v>17</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="1">
         <v>36</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="2">
         <f>A15/B15*100</f>
         <v>47.222222222222221</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>37</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="I16" s="8" t="s">
+    <row r="16" spans="1:11">
+      <c r="J16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
+    <row r="17" spans="1:11">
+      <c r="A17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>39</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="9">
+    <row r="18" spans="1:11">
+      <c r="A18" s="4">
         <v>0.41666666666666669</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="I19" t="s">
+      <c r="B18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="J19" t="s">
         <v>10</v>
       </c>
-      <c r="J19">
-        <f>SUM(J12:J17)</f>
+      <c r="K19">
+        <f>SUM(K12:K17)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>13</v>
       </c>
       <c r="B21" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>16</v>
       </c>
       <c r="B22" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="1">
         <v>19</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="J22" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>18</v>
       </c>
       <c r="B23" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>20</v>
       </c>
       <c r="B24" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="1">
         <v>7</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>54</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>22</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="I26" t="s">
+    <row r="26" spans="1:11">
+      <c r="J26" t="s">
         <v>56</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="17.399999999999999">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:11" ht="17.399999999999999">
+      <c r="A27" s="8" t="s">
         <v>10</v>
       </c>
       <c r="I27" t="s">
+        <v>91</v>
+      </c>
+      <c r="J27" t="s">
         <v>57</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28" t="s">
+    <row r="28" spans="1:11">
+      <c r="A28" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>58</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:11">
+      <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>61</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="6">
+    <row r="30" spans="1:11">
+      <c r="A30" s="1">
         <v>64</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="1">
         <v>36</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="2">
         <f>A30/B30*100</f>
         <v>177.77777777777777</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="D31" s="7"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="6" t="s">
+    <row r="31" spans="1:11">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="D32" s="7"/>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="6" t="s">
+      <c r="B32" s="1"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="6">
+    <row r="34" spans="1:13">
+      <c r="A34" s="1">
         <v>22</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="1">
         <v>36</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="2">
         <f>A34/B34*100</f>
         <v>61.111111111111114</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="6" t="s">
+    <row r="35" spans="1:13">
+      <c r="A35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="D35" s="7"/>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="I36" s="10" t="s">
+      <c r="B35" s="1"/>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="J36" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
-      <c r="I38" t="s">
+    <row r="38" spans="1:13">
+      <c r="J38" t="s">
         <v>5</v>
       </c>
-      <c r="L38" t="s">
+      <c r="M38" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
-      <c r="I39" t="s">
+    <row r="39" spans="1:13">
+      <c r="J39" t="s">
         <v>40</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
-      <c r="A40" t="s">
+    <row r="40" spans="1:13">
+      <c r="A40" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>41</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
         <v>13</v>
       </c>
       <c r="B41" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>42</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
         <v>16</v>
       </c>
       <c r="B42" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="1">
         <v>13</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>43</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
         <v>30</v>
       </c>
       <c r="B43" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="1">
         <v>7</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>44</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
         <v>20</v>
       </c>
       <c r="B44" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="1">
         <v>4</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>45</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:13">
       <c r="A45" t="s">
         <v>32</v>
       </c>
       <c r="B45" t="s">
         <v>33</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
-      <c r="I46" t="s">
+    <row r="46" spans="1:13">
+      <c r="J46" t="s">
         <v>10</v>
       </c>
-      <c r="L46">
-        <f>SUM(L39:L44)</f>
+      <c r="M46">
+        <f>SUM(M39:M44)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
-      <c r="I48" s="10" t="s">
+    <row r="48" spans="1:13">
+      <c r="J48" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="9:10">
-      <c r="I50" t="s">
+    <row r="50" spans="10:11">
+      <c r="J50" t="s">
         <v>54</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="9:10">
-      <c r="I52" t="s">
+    <row r="52" spans="10:11">
+      <c r="J52" t="s">
         <v>66</v>
       </c>
-      <c r="J52" t="s">
+      <c r="K52" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="9:10">
-      <c r="I53" t="s">
+    <row r="53" spans="10:11">
+      <c r="J53" t="s">
         <v>67</v>
       </c>
-      <c r="J53" t="s">
+      <c r="K53" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="9:10">
-      <c r="I54" t="s">
+    <row r="54" spans="10:11">
+      <c r="J54" t="s">
         <v>68</v>
       </c>
-      <c r="J54" t="s">
+      <c r="K54" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="9:10">
-      <c r="I55" t="s">
+    <row r="55" spans="10:11">
+      <c r="J55" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="59" spans="9:10">
-      <c r="I59" s="10" t="s">
+    <row r="59" spans="10:11">
+      <c r="J59" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="9:10">
-      <c r="I61" t="s">
+    <row r="61" spans="10:11">
+      <c r="J61" t="s">
         <v>5</v>
       </c>
-      <c r="J61" t="s">
+      <c r="K61" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="9:10">
-      <c r="I62" t="s">
+    <row r="62" spans="10:11">
+      <c r="J62" t="s">
         <v>47</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="9:10">
-      <c r="I63" t="s">
+    <row r="63" spans="10:11">
+      <c r="J63" t="s">
         <v>48</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="9:10">
-      <c r="I64" t="s">
+    <row r="64" spans="10:11">
+      <c r="J64" t="s">
         <v>49</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="9:10">
-      <c r="I65" t="s">
+    <row r="65" spans="10:11">
+      <c r="J65" t="s">
         <v>50</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="9:10">
-      <c r="I66" t="s">
+    <row r="66" spans="10:11">
+      <c r="J66" t="s">
         <v>51</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="9:10" ht="28.8">
-      <c r="I67" s="8" t="s">
+    <row r="67" spans="10:11" ht="28.8">
+      <c r="J67" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="9:10">
-      <c r="I69" t="s">
+    <row r="69" spans="10:11">
+      <c r="J69" t="s">
         <v>10</v>
       </c>
-      <c r="J69">
-        <f>SUM(J62:J67)</f>
+      <c r="K69">
+        <f>SUM(K62:K67)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="9:10">
-      <c r="I71" s="10" t="s">
+    <row r="71" spans="10:11">
+      <c r="J71" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="9:10">
-      <c r="I73" t="s">
+    <row r="73" spans="10:11">
+      <c r="J73" t="s">
         <v>54</v>
       </c>
-      <c r="J73" t="s">
+      <c r="K73" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="75" spans="9:10">
-      <c r="I75" t="s">
+    <row r="75" spans="10:11">
+      <c r="J75" t="s">
         <v>76</v>
       </c>
-      <c r="J75" t="s">
+      <c r="K75" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="9:10">
-      <c r="I76" t="s">
+    <row r="76" spans="10:11">
+      <c r="J76" t="s">
         <v>78</v>
       </c>
-      <c r="J76" t="s">
+      <c r="K76" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="77" spans="9:10">
-      <c r="I77" t="s">
+    <row r="77" spans="10:11">
+      <c r="J77" t="s">
         <v>79</v>
       </c>
-      <c r="J77" t="s">
+      <c r="K77" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="9:10">
-      <c r="I78" t="s">
+    <row r="78" spans="10:11">
+      <c r="J78" t="s">
         <v>84</v>
       </c>
-      <c r="J78" t="s">
+      <c r="K78" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="79" spans="9:10">
-      <c r="I79" t="s">
+    <row r="79" spans="10:11">
+      <c r="J79" t="s">
         <v>85</v>
       </c>
-      <c r="J79" t="s">
+      <c r="K79" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="85" spans="2:2" ht="25.8">
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="6" t="s">
         <v>87</v>
       </c>
     </row>
@@ -4709,4 +4739,80 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1EA7067-794B-40B5-833C-2B4FB775DDE3}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="25.8">
+      <c r="A1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" ht="25.8">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" ht="17.399999999999999">
+      <c r="A3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" ht="17.399999999999999">
+      <c r="A4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" ht="17.399999999999999">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" ht="17.399999999999999">
+      <c r="A6" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>